--- a/biology/Zoologie/Charaxes_numenes/Charaxes_numenes.xlsx
+++ b/biology/Zoologie/Charaxes_numenes/Charaxes_numenes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Charaxes numenes  est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Charaxinae et au genre Charaxes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			♂ face dorsal
@@ -519,7 +533,7 @@
 			♀ face dorsal
 			♀ △ face ventrale
 Charaxes numenes est un grand papillon d’un beau noir à reflets bleu métallique chez le mâle.
-Le dimorphisme sexuel est fort, la femelle est plus grande que le mâle en moyenne 75,4 mm pour le mâle contre 89,6 mm pour la femelle[1]
+Le dimorphisme sexuel est fort, la femelle est plus grande que le mâle en moyenne 75,4 mm pour le mâle contre 89,6 mm pour la femelle
 </t>
         </is>
       </c>
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Hugonia platysepala, Grewia sp. , Allophylus sp.[2].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hugonia platysepala, Grewia sp. , Allophylus sp..
 </t>
         </is>
       </c>
@@ -580,11 +599,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Présente en Afrique centrale :Ouganda, Centrafrique, Congo, et en Afrique de l’Est : Kenya, Tanzanie ; en Afrique de l’Ouest : Ghana, Sierra Leone.
-Biotope
-Il réside en lisière de forêt.
 </t>
         </is>
       </c>
@@ -610,23 +629,130 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en lisière de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_numenes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_numenes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Charaxes numenes  a été décrit par le naturaliste anglais William Chapman Hewitson, en 1865[3] sous le nom de Nymphalis numenes.
-Synonymie
-Nymphalis numenes Protonyme
-Liste des sous-espèces
-Il existe quatre sous-espèces :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Charaxes numenes  a été décrit par le naturaliste anglais William Chapman Hewitson, en 1865 sous le nom de Nymphalis numenes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_numenes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_numenes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nymphalis numenes Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_numenes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_numenes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il existe quatre sous-espèces :
 Charaxes numenes numenes (Hewitson, 1859)
-Charaxes numenes aequatorialis(van Someren, 1972) [4]
+Charaxes numenes aequatorialis(van Someren, 1972) 
 Synonymie pour cette sous-espèce
-Charaxes albimaculatus[5]
+Charaxes albimaculatus
 Charaxes numenes neumanni 'Rothschild, 1902)
-Charaxes numenes malabo (Turlin, 1998)
-Protection</t>
+Charaxes numenes malabo (Turlin, 1998)</t>
         </is>
       </c>
     </row>
